--- a/trunk/KiCad/2012_HypnoZ/Part_List_RISM2.xlsx
+++ b/trunk/KiCad/2012_HypnoZ/Part_List_RISM2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="20550" windowHeight="8190"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="20550" windowHeight="8190" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Recapitulatif" sheetId="4" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="Référence">Recapitulatif!$A$1:$G$455</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="319">
   <si>
     <t>27p</t>
   </si>
@@ -689,9 +689,6 @@
     <t>Carte Feux AR</t>
   </si>
   <si>
-    <t>Carte SC</t>
-  </si>
-  <si>
     <t>Carte Vitesse/Feux AV</t>
   </si>
   <si>
@@ -836,30 +833,12 @@
     <t>Connecteur 4</t>
   </si>
   <si>
-    <t>P5, P6</t>
-  </si>
-  <si>
-    <t>P7, P8</t>
-  </si>
-  <si>
     <t>Q1, Q2, Q3, Q4</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>REED9081</t>
-  </si>
-  <si>
-    <t>U1, U2, U3, U4</t>
-  </si>
-  <si>
     <t>C1, C3</t>
   </si>
   <si>
-    <t>17p</t>
-  </si>
-  <si>
     <t>C2, C4</t>
   </si>
   <si>
@@ -945,6 +924,66 @@
   </si>
   <si>
     <t>ca serait pas plutôt 27p ?</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4</t>
+  </si>
+  <si>
+    <t>Relais SPDT</t>
+  </si>
+  <si>
+    <t>Relais</t>
+  </si>
+  <si>
+    <t>RELAIS-SPDT</t>
+  </si>
+  <si>
+    <t>K1, K2, K3, K4</t>
+  </si>
+  <si>
+    <t>P1, P5, P6</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4</t>
+  </si>
+  <si>
+    <t>DIP-14__300_ELL</t>
+  </si>
+  <si>
+    <t>DIP-8__300_ELL</t>
+  </si>
+  <si>
+    <t>R5, R6, R7, R8, R9, R10</t>
+  </si>
+  <si>
+    <t>Carte chargeur SC</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5, D6, D7, D8</t>
+  </si>
+  <si>
+    <t>SPDT</t>
+  </si>
+  <si>
+    <t>Connecteur</t>
+  </si>
+  <si>
+    <t>P1, P2, P3, P4, P6, P7, P8, P9, P10, P11, P12, P13, P14</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>FET_N T092DGS</t>
+  </si>
+  <si>
+    <t>R3, R4, R5, R6</t>
+  </si>
+  <si>
+    <t>RV1</t>
+  </si>
+  <si>
+    <t>RV1, RV2</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1405,6 +1444,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,30 +1498,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1766,7 +1808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T71" sqref="T71"/>
     </sheetView>
@@ -1824,181 +1866,181 @@
       <c r="AI2" s="51"/>
     </row>
     <row r="3" spans="1:73" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H3" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86" t="s">
-        <v>297</v>
-      </c>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86" t="s">
-        <v>298</v>
-      </c>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="79"/>
-      <c r="AU3" s="77"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="79"/>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="77"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="79"/>
-      <c r="BG3" s="77"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="79"/>
-      <c r="BJ3" s="77"/>
-      <c r="BK3" s="78"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="77"/>
-      <c r="BN3" s="78"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="77"/>
-      <c r="BQ3" s="78"/>
-      <c r="BR3" s="79"/>
-      <c r="BS3" s="77"/>
-      <c r="BT3" s="78"/>
-      <c r="BU3" s="79"/>
+      <c r="H3" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99" t="s">
+        <v>291</v>
+      </c>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="92"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="91"/>
+      <c r="BC3" s="92"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="91"/>
+      <c r="BF3" s="92"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="91"/>
+      <c r="BI3" s="92"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="91"/>
+      <c r="BL3" s="92"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="91"/>
+      <c r="BO3" s="92"/>
+      <c r="BP3" s="90"/>
+      <c r="BQ3" s="91"/>
+      <c r="BR3" s="92"/>
+      <c r="BS3" s="90"/>
+      <c r="BT3" s="91"/>
+      <c r="BU3" s="92"/>
     </row>
     <row r="4" spans="1:73" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="87"/>
+      <c r="I4" s="100"/>
       <c r="J4" s="35">
         <v>2</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="87"/>
+      <c r="L4" s="100"/>
       <c r="M4" s="76">
         <v>2</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="O4" s="87"/>
+      <c r="O4" s="100"/>
       <c r="P4" s="76">
         <v>2</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="100"/>
       <c r="S4" s="76">
         <v>2</v>
       </c>
-      <c r="T4" s="87" t="s">
+      <c r="T4" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="U4" s="87"/>
+      <c r="U4" s="100"/>
       <c r="V4" s="76">
         <v>2</v>
       </c>
-      <c r="W4" s="80"/>
-      <c r="X4" s="81"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="94"/>
       <c r="Y4" s="36"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="81"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
       <c r="AB4" s="36"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="81"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="94"/>
       <c r="AE4" s="36"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="81"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="94"/>
       <c r="AH4" s="36"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="81"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
       <c r="AK4" s="36"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="81"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="94"/>
       <c r="AN4" s="62"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="81"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="94"/>
       <c r="AQ4" s="62"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="81"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="94"/>
       <c r="AT4" s="62"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="81"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="94"/>
       <c r="AW4" s="62"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="81"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="94"/>
       <c r="AZ4" s="62"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="81"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="94"/>
       <c r="BC4" s="62"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
       <c r="BF4" s="62"/>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="81"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="94"/>
       <c r="BI4" s="62"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="81"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="94"/>
       <c r="BL4" s="62"/>
-      <c r="BM4" s="80"/>
-      <c r="BN4" s="81"/>
+      <c r="BM4" s="93"/>
+      <c r="BN4" s="94"/>
       <c r="BO4" s="62"/>
-      <c r="BP4" s="80"/>
-      <c r="BQ4" s="81"/>
+      <c r="BP4" s="93"/>
+      <c r="BQ4" s="94"/>
       <c r="BR4" s="62"/>
-      <c r="BS4" s="80"/>
-      <c r="BT4" s="81"/>
+      <c r="BS4" s="93"/>
+      <c r="BT4" s="94"/>
       <c r="BU4" s="62"/>
     </row>
     <row r="5" spans="1:73" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="30" t="s">
         <v>142</v>
       </c>
@@ -5249,10 +5291,10 @@
         <v>1614492</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E32" s="31">
         <v>1</v>
@@ -10617,16 +10659,16 @@
     </row>
     <row r="76" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B76">
         <v>1903847</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E76" s="31">
         <v>10</v>
@@ -10642,55 +10684,55 @@
         <v>0</v>
       </c>
       <c r="I76" s="32">
-        <f t="shared" ref="I76:I77" si="31">$G76*H76</f>
+        <f t="shared" ref="I76" si="31">$G76*H76</f>
         <v>0</v>
       </c>
       <c r="J76" s="32">
-        <f t="shared" ref="J76:J77" si="32">J$4*I76</f>
+        <f t="shared" ref="J76" si="32">J$4*I76</f>
         <v>0</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76" s="32">
-        <f t="shared" ref="L76:L77" si="33">$G76*K76</f>
+        <f t="shared" ref="L76" si="33">$G76*K76</f>
         <v>0.3</v>
       </c>
       <c r="M76" s="32">
-        <f t="shared" ref="M76:M77" si="34">M$4*L76</f>
+        <f t="shared" ref="M76" si="34">M$4*L76</f>
         <v>0.6</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
       <c r="O76" s="32">
-        <f t="shared" ref="O76:O77" si="35">$G76*N76</f>
+        <f t="shared" ref="O76" si="35">$G76*N76</f>
         <v>0</v>
       </c>
       <c r="P76" s="32">
-        <f t="shared" ref="P76:P77" si="36">P$4*O76</f>
+        <f t="shared" ref="P76" si="36">P$4*O76</f>
         <v>0</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76" s="32">
-        <f t="shared" ref="R76:R77" si="37">$G76*Q76</f>
+        <f t="shared" ref="R76" si="37">$G76*Q76</f>
         <v>0</v>
       </c>
       <c r="S76" s="32">
-        <f t="shared" ref="S76:S77" si="38">S$4*R76</f>
+        <f t="shared" ref="S76" si="38">S$4*R76</f>
         <v>0</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76" s="32">
-        <f t="shared" ref="U76:U77" si="39">$G76*T76</f>
+        <f t="shared" ref="U76" si="39">$G76*T76</f>
         <v>0</v>
       </c>
       <c r="V76" s="32">
-        <f t="shared" ref="V76:V77" si="40">V$4*U76</f>
+        <f t="shared" ref="V76" si="40">V$4*U76</f>
         <v>0</v>
       </c>
       <c r="W76" s="40"/>
@@ -10741,16 +10783,16 @@
     </row>
     <row r="77" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B77">
         <v>1155257</v>
       </c>
       <c r="C77" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E77" s="31">
         <v>1</v>
@@ -12091,13 +12133,13 @@
     </row>
     <row r="88" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A88" s="68" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B88">
         <v>1700610</v>
       </c>
       <c r="C88" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D88" s="61" t="s">
         <v>91</v>
@@ -12108,7 +12150,7 @@
       <c r="F88" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G88" s="96">
+      <c r="G88" s="84">
         <f t="shared" si="51"/>
         <v>3.3000000000000002E-2</v>
       </c>
@@ -12475,51 +12517,51 @@
         <v>93.084000000000003</v>
       </c>
       <c r="K91" s="2">
-        <f>SUM(K7:K90)</f>
+        <f t="shared" ref="K91:V91" si="61">SUM(K7:K90)</f>
         <v>14</v>
       </c>
       <c r="L91" s="34">
-        <f>SUM(L7:L90)</f>
+        <f t="shared" si="61"/>
         <v>9.3230000000000004</v>
       </c>
       <c r="M91" s="34">
-        <f>SUM(M7:M90)</f>
+        <f t="shared" si="61"/>
         <v>18.646000000000001</v>
       </c>
       <c r="N91" s="2">
-        <f>SUM(N7:N90)</f>
+        <f t="shared" si="61"/>
         <v>10</v>
       </c>
       <c r="O91" s="34">
-        <f>SUM(O7:O90)</f>
+        <f t="shared" si="61"/>
         <v>2.7619999999999996</v>
       </c>
       <c r="P91" s="34">
-        <f>SUM(P7:P90)</f>
+        <f t="shared" si="61"/>
         <v>5.5239999999999991</v>
       </c>
       <c r="Q91" s="2">
-        <f>SUM(Q7:Q90)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R91" s="34">
-        <f>SUM(R7:R90)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S91" s="34">
-        <f>SUM(S7:S90)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T91" s="2">
-        <f>SUM(T7:T90)</f>
+        <f t="shared" si="61"/>
         <v>38</v>
       </c>
       <c r="U91" s="34">
-        <f>SUM(U7:U90)</f>
+        <f t="shared" si="61"/>
         <v>6.0509999999999984</v>
       </c>
       <c r="V91" s="34">
-        <f>SUM(V7:V90)</f>
+        <f t="shared" si="61"/>
         <v>12.101999999999997</v>
       </c>
       <c r="W91" s="44"/>
@@ -12667,79 +12709,79 @@
       <c r="BR92" s="48"/>
     </row>
     <row r="93" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H93" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="I93" s="86"/>
-      <c r="J93" s="86"/>
-      <c r="K93" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="L93" s="86"/>
-      <c r="M93" s="86"/>
-      <c r="N93" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="O93" s="86"/>
-      <c r="P93" s="86"/>
-      <c r="Q93" s="86" t="s">
-        <v>297</v>
-      </c>
-      <c r="R93" s="86"/>
-      <c r="S93" s="86"/>
-      <c r="T93" s="86" t="s">
-        <v>298</v>
-      </c>
-      <c r="U93" s="86"/>
-      <c r="V93" s="86"/>
-      <c r="W93" s="82"/>
-      <c r="X93" s="83"/>
-      <c r="Y93" s="84"/>
-      <c r="Z93" s="82"/>
-      <c r="AA93" s="83"/>
-      <c r="AB93" s="84"/>
-      <c r="AC93" s="82"/>
-      <c r="AD93" s="83"/>
-      <c r="AE93" s="84"/>
-      <c r="AF93" s="82"/>
-      <c r="AG93" s="83"/>
-      <c r="AH93" s="84"/>
-      <c r="AI93" s="82"/>
-      <c r="AJ93" s="83"/>
-      <c r="AK93" s="84"/>
-      <c r="AL93" s="82"/>
-      <c r="AM93" s="83"/>
-      <c r="AN93" s="84"/>
-      <c r="AO93" s="82"/>
-      <c r="AP93" s="83"/>
-      <c r="AQ93" s="84"/>
-      <c r="AR93" s="82"/>
-      <c r="AS93" s="83"/>
-      <c r="AT93" s="84"/>
-      <c r="AU93" s="82"/>
-      <c r="AV93" s="83"/>
-      <c r="AW93" s="84"/>
-      <c r="AX93" s="82"/>
-      <c r="AY93" s="83"/>
-      <c r="AZ93" s="84"/>
-      <c r="BA93" s="82"/>
-      <c r="BB93" s="83"/>
-      <c r="BC93" s="84"/>
-      <c r="BD93" s="82"/>
-      <c r="BE93" s="83"/>
-      <c r="BF93" s="84"/>
-      <c r="BG93" s="82"/>
-      <c r="BH93" s="83"/>
-      <c r="BI93" s="84"/>
-      <c r="BJ93" s="82"/>
-      <c r="BK93" s="83"/>
-      <c r="BL93" s="84"/>
-      <c r="BM93" s="82"/>
-      <c r="BN93" s="83"/>
-      <c r="BO93" s="84"/>
-      <c r="BP93" s="82"/>
-      <c r="BQ93" s="83"/>
-      <c r="BR93" s="84"/>
+      <c r="H93" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="I93" s="99"/>
+      <c r="J93" s="99"/>
+      <c r="K93" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="L93" s="99"/>
+      <c r="M93" s="99"/>
+      <c r="N93" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="O93" s="99"/>
+      <c r="P93" s="99"/>
+      <c r="Q93" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="R93" s="99"/>
+      <c r="S93" s="99"/>
+      <c r="T93" s="99" t="s">
+        <v>291</v>
+      </c>
+      <c r="U93" s="99"/>
+      <c r="V93" s="99"/>
+      <c r="W93" s="95"/>
+      <c r="X93" s="96"/>
+      <c r="Y93" s="97"/>
+      <c r="Z93" s="95"/>
+      <c r="AA93" s="96"/>
+      <c r="AB93" s="97"/>
+      <c r="AC93" s="95"/>
+      <c r="AD93" s="96"/>
+      <c r="AE93" s="97"/>
+      <c r="AF93" s="95"/>
+      <c r="AG93" s="96"/>
+      <c r="AH93" s="97"/>
+      <c r="AI93" s="95"/>
+      <c r="AJ93" s="96"/>
+      <c r="AK93" s="97"/>
+      <c r="AL93" s="95"/>
+      <c r="AM93" s="96"/>
+      <c r="AN93" s="97"/>
+      <c r="AO93" s="95"/>
+      <c r="AP93" s="96"/>
+      <c r="AQ93" s="97"/>
+      <c r="AR93" s="95"/>
+      <c r="AS93" s="96"/>
+      <c r="AT93" s="97"/>
+      <c r="AU93" s="95"/>
+      <c r="AV93" s="96"/>
+      <c r="AW93" s="97"/>
+      <c r="AX93" s="95"/>
+      <c r="AY93" s="96"/>
+      <c r="AZ93" s="97"/>
+      <c r="BA93" s="95"/>
+      <c r="BB93" s="96"/>
+      <c r="BC93" s="97"/>
+      <c r="BD93" s="95"/>
+      <c r="BE93" s="96"/>
+      <c r="BF93" s="97"/>
+      <c r="BG93" s="95"/>
+      <c r="BH93" s="96"/>
+      <c r="BI93" s="97"/>
+      <c r="BJ93" s="95"/>
+      <c r="BK93" s="96"/>
+      <c r="BL93" s="97"/>
+      <c r="BM93" s="95"/>
+      <c r="BN93" s="96"/>
+      <c r="BO93" s="97"/>
+      <c r="BP93" s="95"/>
+      <c r="BQ93" s="96"/>
+      <c r="BR93" s="97"/>
     </row>
   </sheetData>
   <sortState ref="A49:BR50">
@@ -12754,6 +12796,14 @@
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="Z93:AB93"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC93:AE93"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AF93:AH93"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="Q93:S93"/>
@@ -12770,14 +12820,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K93:M93"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC93:AE93"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AF93:AH93"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AI93:AK93"/>
     <mergeCell ref="AL93:AN93"/>
     <mergeCell ref="AO3:AQ3"/>
@@ -12822,8 +12864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12833,14 +12875,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -12908,7 +12950,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="79" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="8">
@@ -12944,7 +12986,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="80" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="9">
@@ -13114,7 +13156,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="79" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="5">
@@ -13146,7 +13188,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="80" t="s">
         <v>134</v>
       </c>
       <c r="B13" s="11"/>
@@ -13779,7 +13821,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="81" t="s">
         <v>164</v>
       </c>
       <c r="B33" s="19">
@@ -13811,7 +13853,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="81" t="s">
         <v>163</v>
       </c>
       <c r="B34" s="19">
@@ -13843,7 +13885,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="81" t="s">
         <v>165</v>
       </c>
       <c r="B35" s="19">
@@ -13875,7 +13917,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="81" t="s">
         <v>166</v>
       </c>
       <c r="B36" s="19">
@@ -13907,7 +13949,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="81" t="s">
         <v>170</v>
       </c>
       <c r="B37" s="19">
@@ -13939,7 +13981,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="81" t="s">
         <v>172</v>
       </c>
       <c r="B38" s="19">
@@ -13971,7 +14013,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="81" t="s">
         <v>173</v>
       </c>
       <c r="B39" s="19">
@@ -14003,7 +14045,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="81" t="s">
         <v>171</v>
       </c>
       <c r="B40" s="19">
@@ -14325,7 +14367,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="80" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="11"/>
@@ -14353,7 +14395,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="80" t="s">
         <v>130</v>
       </c>
       <c r="B51" s="11"/>
@@ -14443,7 +14485,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="80" t="s">
         <v>123</v>
       </c>
       <c r="B54" s="9">
@@ -14475,7 +14517,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="92" t="s">
+      <c r="A55" s="80" t="s">
         <v>128</v>
       </c>
       <c r="B55" s="9">
@@ -14603,7 +14645,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="92" t="s">
+      <c r="A59" s="80" t="s">
         <v>136</v>
       </c>
       <c r="B59" s="9">
@@ -14635,7 +14677,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="80" t="s">
         <v>133</v>
       </c>
       <c r="B60" s="11"/>
@@ -15181,7 +15223,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="91" t="s">
+      <c r="A77" s="79" t="s">
         <v>131</v>
       </c>
       <c r="B77" s="20"/>
@@ -15207,7 +15249,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="91" t="s">
+      <c r="A78" s="79" t="s">
         <v>129</v>
       </c>
       <c r="B78" s="19">
@@ -15303,7 +15345,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="92" t="s">
+      <c r="A81" s="80" t="s">
         <v>42</v>
       </c>
       <c r="B81" s="9">
@@ -15367,7 +15409,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="81" t="s">
         <v>188</v>
       </c>
       <c r="B83" s="19">
@@ -15397,7 +15439,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="94" t="s">
+      <c r="A84" s="82" t="s">
         <v>195</v>
       </c>
       <c r="B84" s="13">
@@ -15457,10 +15499,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D27"/>
+  <dimension ref="A3:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15470,12 +15512,12 @@
     <col min="3" max="3" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -15489,7 +15531,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -15497,13 +15539,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -15517,7 +15559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -15531,7 +15573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -15545,7 +15587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -15559,9 +15601,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -15573,198 +15615,216 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="B11" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="97" t="s">
+      <c r="B12" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D12" s="85">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="97">
+      <c r="C13" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="85">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
         <v>244</v>
-      </c>
-      <c r="C14" t="s">
-        <v>245</v>
       </c>
       <c r="D14">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="98">
+      <c r="D15" s="86">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="97" t="s">
+      <c r="E15">
+        <v>9845623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="85">
+        <v>510</v>
+      </c>
+      <c r="C17" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="97">
+      <c r="D17" s="85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="86">
         <v>510</v>
       </c>
-      <c r="C17" s="99" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="97">
+      <c r="C18" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="86">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
-        <v>254</v>
-      </c>
-      <c r="B18" s="98">
-        <v>510</v>
-      </c>
-      <c r="C18" s="100" t="s">
+      <c r="E18">
+        <v>1973119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="D18" s="98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="B19" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="B19" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="100" t="s">
+      <c r="D19" s="86">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1132885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D19" s="98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="78" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1696321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="78" t="s">
         <v>261</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="90" t="s">
-        <v>262</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="E21">
+        <v>1218313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="C22" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="D22" s="86">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>1208882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" s="98" t="s">
+      <c r="C23" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="100" t="s">
-        <v>267</v>
-      </c>
-      <c r="D23" s="98">
+      <c r="D23" s="86">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
   </sheetData>
@@ -15775,10 +15835,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15789,15 +15849,15 @@
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="95"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="83"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -15811,7 +15871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -15819,59 +15879,62 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="101" t="s">
+      <c r="B7" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="78" t="s">
         <v>224</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>225</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="51">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>9865063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="77">
         <v>10</v>
       </c>
       <c r="C10" t="s">
@@ -15881,70 +15944,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="51">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1716993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
         <v>229</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="51">
         <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1689852</v>
       </c>
     </row>
   </sheetData>
@@ -15954,25 +16023,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D10"/>
+  <dimension ref="A4:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -15986,7 +16056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -16000,35 +16070,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -16036,49 +16106,311 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="51">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1459713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>4069</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>9665579</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3"/>
+  <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15">
+        <v>1689852</v>
       </c>
     </row>
   </sheetData>
@@ -16091,7 +16423,7 @@
   <dimension ref="A4:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D18" sqref="A18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16104,7 +16436,7 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -16129,38 +16461,38 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="95">
+      <c r="B7" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="83">
         <v>2</v>
       </c>
-      <c r="F7" s="95" t="s">
-        <v>305</v>
+      <c r="F7" s="83" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -16168,7 +16500,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -16185,10 +16517,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -16196,13 +16528,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -16224,13 +16556,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -16238,13 +16570,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -16258,66 +16590,72 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="A16" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="51">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C18" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="51">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19" s="89">
+      <c r="E18">
+        <v>1459713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" s="101">
         <v>4069</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="51">
         <v>1</v>
+      </c>
+      <c r="E19">
+        <v>9665579</v>
       </c>
     </row>
   </sheetData>
